--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1331591.750579037</v>
+        <v>1356193.211363898</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>205.5178444382804</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>162.1947822849135</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>148.2900191774061</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>202.5228701712433</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>143.7773912969451</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>119.8469440170073</v>
       </c>
       <c r="X6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.9350621022359</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>148.8506349098462</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T8" t="n">
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
+        <v>77.91282834847037</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.4361844420625</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>205.5178444382804</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>71.8131212787539</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="13">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C14" t="n">
+      <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D14" t="n">
+      <c r="H14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E14" t="n">
+      <c r="I14" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>181.0201173812374</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>119.3034809802377</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>84.41978777916125</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>135.4141600157168</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>3.265316057196634</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>11.18709822926786</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>63.88882306452221</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,64 +2315,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4402686634887</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>89.93607067950306</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.46697834767978</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>92.55722408766215</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>145.4287699906872</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
@@ -3044,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,22 +3071,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>121.7911906719549</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>97.79930647673596</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3196,49 +3196,49 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3345,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>128.4778061762885</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>41.52504489369549</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3442,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3463,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3509,22 +3509,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>124.5388004963448</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>85.31372784089217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>41.30402073131225</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>136.9590004198107</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,11 +4028,11 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>102.5949237722608</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,67 +4135,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>243.0506998122385</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>243.0506998122385</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>243.0506998122385</v>
       </c>
       <c r="E2" t="n">
-        <v>614.4775954922324</v>
+        <v>243.0506998122385</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8838132313431</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G2" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
         <v>28.51141680214578</v>
@@ -4334,10 +4334,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4355,25 +4355,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>243.0506998122385</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>243.0506998122385</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516.3332925774787</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="C3" t="n">
-        <v>516.3332925774787</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="D3" t="n">
-        <v>367.3988829162274</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="E3" t="n">
-        <v>367.3988829162274</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="F3" t="n">
-        <v>220.8643249431123</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4440,19 +4440,19 @@
         <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>571.1139501470112</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>363.520167886122</v>
       </c>
       <c r="W3" t="n">
-        <v>516.3332925774787</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="X3" t="n">
-        <v>516.3332925774787</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="Y3" t="n">
-        <v>516.3332925774787</v>
+        <v>155.9263856252326</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251.5625096843836</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C5" t="n">
-        <v>251.5625096843836</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D5" t="n">
-        <v>251.5625096843836</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E5" t="n">
-        <v>251.5625096843836</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F5" t="n">
         <v>43.96872742349432</v>
@@ -4568,19 +4568,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4589,28 +4589,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X5" t="n">
-        <v>396.792197863116</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.792197863116</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
         <v>16.44142755506243</v>
@@ -4653,16 +4653,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4683,13 +4683,13 @@
         <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>513.308066045118</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X6" t="n">
-        <v>305.7142837842288</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.3758372163137</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>189.1984156022267</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>189.1984156022267</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D8" t="n">
-        <v>189.1984156022267</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>189.1984156022267</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F8" t="n">
-        <v>182.2529148530233</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G8" t="n">
-        <v>166.7956042316747</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>166.7956042316747</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>189.1984156022267</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>189.1984156022267</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>189.1984156022267</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>189.1984156022267</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
-        <v>189.1984156022267</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>304.2635924286101</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C9" t="n">
-        <v>129.8105631474831</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D9" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
         <v>16.44142755506243</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>513.308066045118</v>
+        <v>541.1849564972711</v>
       </c>
       <c r="V9" t="n">
-        <v>305.7142837842288</v>
+        <v>541.1849564972711</v>
       </c>
       <c r="W9" t="n">
-        <v>304.2635924286101</v>
+        <v>541.1849564972711</v>
       </c>
       <c r="X9" t="n">
-        <v>304.2635924286101</v>
+        <v>333.5911742363817</v>
       </c>
       <c r="Y9" t="n">
-        <v>304.2635924286101</v>
+        <v>333.5911742363817</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5066,25 +5066,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>236.1051990630351</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V11" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W11" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X11" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.1299698690994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>166.1299698690994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5154,16 +5154,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>749.532871410946</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X12" t="n">
-        <v>541.9390891500567</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y12" t="n">
-        <v>334.3453068891674</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="C14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="D14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="E14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="F14" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="C14" t="n">
+      <c r="G14" t="n">
         <v>406.8838132313431</v>
       </c>
-      <c r="D14" t="n">
+      <c r="H14" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,10 +5279,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>639.2227743377304</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>431.628992076841</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V15" t="n">
-        <v>431.628992076841</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="W15" t="n">
-        <v>431.628992076841</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X15" t="n">
-        <v>224.0352098159517</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5543,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="19">
@@ -5692,7 +5692,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>960.7588564629629</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>429.2157613146156</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>282.6812033415006</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>143.9503779241161</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58124233169541</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5938,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>603.3264082709125</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C24" t="n">
-        <v>428.8733789897854</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>603.3264082709125</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>603.3264082709125</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>603.3264082709125</v>
+        <v>168.215552771464</v>
       </c>
       <c r="W24" t="n">
-        <v>603.3264082709125</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X24" t="n">
-        <v>603.3264082709125</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y24" t="n">
-        <v>603.3264082709125</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6166,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>569.2254314512334</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C26" t="n">
-        <v>569.2254314512334</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D26" t="n">
-        <v>569.2254314512334</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E26" t="n">
-        <v>569.2254314512334</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F26" t="n">
-        <v>569.2254314512334</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G26" t="n">
-        <v>325.7766548071333</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H26" t="n">
-        <v>82.32787816303323</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
         <v>31.35113235729608</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V26" t="n">
-        <v>569.2254314512334</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W26" t="n">
-        <v>569.2254314512334</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X26" t="n">
-        <v>569.2254314512334</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6309,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>310.5702840197694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6400,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C29" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D29" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E29" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C29" t="n">
+      <c r="G29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.334904905842</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>203.827050448935</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>203.827050448935</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>203.827050448935</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>203.827050448935</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>203.827050448935</v>
       </c>
       <c r="H30" t="n">
         <v>110.334904905842</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>817.1594080452955</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>588.9357897816847</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>353.783681549942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>110.334904905842</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>110.334904905842</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.334904905842</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="31">
@@ -6643,10 +6643,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>954.7294120600181</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>954.7294120600181</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>743.5980286395683</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>485.4562706347935</v>
+        <v>489.203140025706</v>
       </c>
       <c r="C33" t="n">
-        <v>485.4562706347935</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D33" t="n">
-        <v>485.4562706347935</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>485.4562706347935</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>865.269977251307</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>865.269977251307</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>865.269977251307</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>865.269977251307</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>865.269977251307</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>865.269977251307</v>
       </c>
       <c r="X33" t="n">
-        <v>485.4562706347935</v>
+        <v>657.4184770457741</v>
       </c>
       <c r="Y33" t="n">
-        <v>485.4562706347935</v>
+        <v>657.4184770457741</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6886,22 +6886,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>548.4453565401495</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="C36" t="n">
-        <v>548.4453565401495</v>
+        <v>359.1939133246643</v>
       </c>
       <c r="D36" t="n">
-        <v>548.4453565401495</v>
+        <v>359.1939133246643</v>
       </c>
       <c r="E36" t="n">
-        <v>418.6697947459187</v>
+        <v>199.9564583192088</v>
       </c>
       <c r="F36" t="n">
-        <v>272.1352367728036</v>
+        <v>199.9564583192088</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>61.22563290182433</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K37" t="n">
         <v>829.5248650203655</v>
@@ -7111,34 +7111,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7284,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>838.2603873325102</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X39" t="n">
-        <v>877.8816728430684</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y39" t="n">
-        <v>670.1213740781145</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7421,10 +7421,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7445,16 +7445,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>268.5413885648676</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="C42" t="n">
-        <v>268.5413885648676</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D42" t="n">
-        <v>268.5413885648676</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E42" t="n">
-        <v>268.5413885648676</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F42" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7491,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7512,28 +7512,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>780.3501446911901</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>780.3501446911901</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>578.163550049956</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>578.163550049956</v>
       </c>
       <c r="V42" t="n">
-        <v>683.7289530866461</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="W42" t="n">
-        <v>683.7289530866461</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="X42" t="n">
-        <v>476.1351708257569</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="Y42" t="n">
-        <v>268.5413885648676</v>
+        <v>162.9759855281775</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
         <v>16.44142755506243</v>
@@ -7649,49 +7649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>337.4290148093045</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
         <v>16.44142755506243</v>
@@ -7731,13 +7731,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M45" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>423.3667595428576</v>
-      </c>
-      <c r="N45" t="n">
-        <v>570.0333416264414</v>
       </c>
       <c r="O45" t="n">
         <v>570.0333416264414</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>648.6540332037905</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,13 +8225,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,13 +9957,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10674,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,13 +11069,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,16 +11379,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>39.94924155962048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>45.82780846955609</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>179.8818618821657</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="13">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.14461131358425</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>113.4971061691875</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23750,10 +23750,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23823,16 +23823,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>64.75056867910476</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23972,7 +23972,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,16 +24011,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>108.137662477717</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24054,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>78.20953462214722</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,16 +24099,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>385.6922903709871</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,13 +24254,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>14.72446003133288</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>142.8645164699222</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24406,7 +24406,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>160.0089112227261</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>54.64996344005395</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24774,7 +24774,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>19.67822014883431</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>54.73595870413436</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,13 +24883,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
@@ -24932,13 +24932,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,22 +24959,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7562331984329127</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>23.278021721429</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>2.358527675907169</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,13 +25053,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25217,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25233,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>29.16727427911243</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>70.71039934280097</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,10 +25284,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25330,13 +25330,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195525</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,13 +25351,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25397,22 +25397,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,7 +25442,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>155.3634430599709</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25524,16 +25524,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>101.40258158463</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>120.4592573625853</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25685,7 +25685,7 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25716,13 +25716,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,19 +25752,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>58.85381342133088</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>95.84158672961453</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25773,7 +25773,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,10 +25831,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25865,7 +25865,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>194.2434736043149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,7 +25874,7 @@
         <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,10 +25916,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>63.93825987760655</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25953,7 +25953,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26001,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370883.500813228</v>
+        <v>370883.5008132281</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370883.5008132281</v>
+        <v>370883.500813228</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390656.2152838467</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390656.2152838468</v>
+        <v>390656.2152838469</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>390656.2152838469</v>
+        <v>390656.2152838467</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390656.2152838469</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390656.2152838469</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>390656.2152838469</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="15">
@@ -26314,7 +26314,7 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
@@ -26338,7 +26338,7 @@
         <v>216008.8742907321</v>
       </c>
       <c r="K2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="L2" t="n">
         <v>216008.8742907321</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315381.220462694</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="C4" t="n">
-        <v>315381.220462694</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="D4" t="n">
-        <v>315381.220462694</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103299.0884255529</v>
+        <v>106171.9344054873</v>
       </c>
       <c r="C6" t="n">
-        <v>172172.8450072428</v>
+        <v>175045.6909871771</v>
       </c>
       <c r="D6" t="n">
-        <v>172172.8450072428</v>
+        <v>175045.6909871773</v>
       </c>
       <c r="E6" t="n">
-        <v>165746.1031283177</v>
+        <v>168618.9491082521</v>
       </c>
       <c r="F6" t="n">
-        <v>165746.1031283177</v>
+        <v>168618.9491082521</v>
       </c>
       <c r="G6" t="n">
-        <v>163315.9212217934</v>
+        <v>166343.8943401841</v>
       </c>
       <c r="H6" t="n">
-        <v>173044.9641959605</v>
+        <v>176072.9373143511</v>
       </c>
       <c r="I6" t="n">
-        <v>173044.9641959605</v>
+        <v>176072.9373143511</v>
       </c>
       <c r="J6" t="n">
-        <v>119272.4533057511</v>
+        <v>122300.4264241417</v>
       </c>
       <c r="K6" t="n">
-        <v>173044.9641959604</v>
+        <v>176072.9373143511</v>
       </c>
       <c r="L6" t="n">
-        <v>173044.9641959605</v>
+        <v>176072.9373143511</v>
       </c>
       <c r="M6" t="n">
-        <v>173044.9641959605</v>
+        <v>176072.9373143512</v>
       </c>
       <c r="N6" t="n">
-        <v>173044.9641959605</v>
+        <v>176072.9373143512</v>
       </c>
       <c r="O6" t="n">
-        <v>165746.1031283177</v>
+        <v>168618.9491082521</v>
       </c>
       <c r="P6" t="n">
-        <v>165746.1031283177</v>
+        <v>168618.9491082521</v>
       </c>
     </row>
   </sheetData>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>209.7848930768546</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,13 +27436,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>207.5363183935555</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,13 +27512,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>77.6513629035687</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>49.17211298967629</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27555,10 +27555,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062294</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>238.9564503665355</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>162.1329695683187</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27673,7 +27673,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>131.8480391439123</v>
       </c>
       <c r="X6" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>66.74763367506844</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>235.0383253024833</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>61.62525466055973</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,28 +27895,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27947,7 +27947,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>148.0285537325045</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>250.2587987188571</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>46.82786452690797</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34702,13 +34702,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34945,13 +34945,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35188,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="O45" t="n">
         <v>148.1480627106907</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1356193.211363898</v>
+        <v>1357776.073549369</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6007264.043952573</v>
+        <v>6061955.351807457</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>162.1947822849135</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>35.18454619735122</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>148.2900191774061</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>192.5500720523643</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>119.8469440170073</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>61.07562230169311</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>77.91282834847037</v>
+        <v>143.1689537721622</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,64 +1296,64 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.0201173812374</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>119.3034809802377</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1853,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -1886,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>51.87748497259537</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>100.8824071085284</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2160,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>11.18709822926786</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>98.10479885422598</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2360,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>89.93607067950306</v>
+        <v>186.1868599897466</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>36.40754942051851</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2801,56 +2803,56 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>92.55722408766215</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>178.4889620437564</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>97.79930647673596</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>41.52504489369549</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>176.1919908257736</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3442,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3503,28 +3505,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y38" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>131.9191607488403</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>124.5388004963448</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>45.02278574591164</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.30402073131225</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>44.62125114875211</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243.0506998122385</v>
+        <v>124.457110779899</v>
       </c>
       <c r="C2" t="n">
-        <v>243.0506998122385</v>
+        <v>124.457110779899</v>
       </c>
       <c r="D2" t="n">
-        <v>243.0506998122385</v>
+        <v>124.457110779899</v>
       </c>
       <c r="E2" t="n">
-        <v>243.0506998122385</v>
+        <v>124.457110779899</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W2" t="n">
-        <v>406.8838132313431</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X2" t="n">
-        <v>243.0506998122385</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.0506998122385</v>
+        <v>124.457110779899</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.9263856252326</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>155.9263856252326</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>155.9263856252326</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>155.9263856252326</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>155.9263856252326</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>571.1139501470112</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>363.520167886122</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>155.9263856252326</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="X3" t="n">
-        <v>155.9263856252326</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.9263856252326</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.4092504478133</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>245.4092504478133</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>50.91422817269779</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>50.91422817269779</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>43.96872742349432</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>660.5968149695918</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W5" t="n">
-        <v>660.5968149695918</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X5" t="n">
-        <v>453.0030327087026</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>245.4092504478133</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>599.8443290969091</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2505468360198</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>50.91422817269779</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>43.96872742349432</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3758372163137</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C9" t="n">
-        <v>165.3758372163137</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>541.1849564972711</v>
+        <v>342.668582052591</v>
       </c>
       <c r="V9" t="n">
-        <v>541.1849564972711</v>
+        <v>342.668582052591</v>
       </c>
       <c r="W9" t="n">
-        <v>541.1849564972711</v>
+        <v>342.668582052591</v>
       </c>
       <c r="X9" t="n">
-        <v>333.5911742363817</v>
+        <v>342.668582052591</v>
       </c>
       <c r="Y9" t="n">
-        <v>333.5911742363817</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W12" t="n">
-        <v>406.8838132313431</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X12" t="n">
-        <v>199.2900309704538</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>17.19556020784815</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>243.9530410142718</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
         <v>243.9530410142718</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>362.4348659156472</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C18" t="n">
-        <v>362.4348659156472</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D18" t="n">
-        <v>362.4348659156472</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>362.4348659156472</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
         <v>362.4348659156472</v>
@@ -5598,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="U18" t="n">
-        <v>362.4348659156472</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="V18" t="n">
-        <v>362.4348659156472</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="W18" t="n">
-        <v>362.4348659156472</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X18" t="n">
-        <v>362.4348659156472</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y18" t="n">
-        <v>362.4348659156472</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="19">
@@ -5692,31 +5694,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>700.6811714053606</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>429.2157613146156</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>282.6812033415006</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9503779241161</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>30.58124233169541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>588.4532163200711</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6788758079141</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C23" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.215552771464</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>168.215552771464</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="W24" t="n">
-        <v>168.215552771464</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="X24" t="n">
-        <v>168.215552771464</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="Y24" t="n">
-        <v>168.215552771464</v>
+        <v>602.5722756181267</v>
       </c>
     </row>
     <row r="25">
@@ -6166,19 +6168,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>56.81057820796663</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6315,10 +6317,10 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="28">
@@ -6403,19 +6405,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>203.827050448935</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C30" t="n">
-        <v>203.827050448935</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D30" t="n">
-        <v>203.827050448935</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>203.827050448935</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>203.827050448935</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>411.587349213889</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.827050448935</v>
+        <v>332.4649978087242</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>489.203140025706</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>865.269977251307</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S33" t="n">
-        <v>865.269977251307</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T33" t="n">
-        <v>865.269977251307</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U33" t="n">
-        <v>865.269977251307</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>865.269977251307</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>865.269977251307</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>657.4184770457741</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>657.4184770457741</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>533.6469426057913</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C36" t="n">
-        <v>359.1939133246643</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D36" t="n">
-        <v>359.1939133246643</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E36" t="n">
-        <v>199.9564583192088</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>199.9564583192088</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>61.22563290182433</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>533.6469426057913</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>533.6469426057913</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>533.6469426057913</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>961.308225475175</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
         <v>829.5248650203655</v>
@@ -7111,34 +7113,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>838.2603873325102</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>603.1082791007675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>603.1082791007675</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>395.2567788952347</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>162.9759855281775</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C42" t="n">
-        <v>162.9759855281775</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D42" t="n">
-        <v>162.9759855281775</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E42" t="n">
-        <v>162.9759855281775</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>780.3501446911901</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>780.3501446911901</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>578.163550049956</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>578.163550049956</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>370.5697677890668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>370.5697677890668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>162.9759855281775</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>162.9759855281775</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C44" t="n">
-        <v>406.8838132313431</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D44" t="n">
-        <v>406.8838132313431</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>918.9851846533109</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>918.9851846533109</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>918.9851846533109</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>683.8330764215681</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>683.8330764215681</v>
       </c>
       <c r="X45" t="n">
-        <v>224.0352098159517</v>
+        <v>683.8330764215681</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>476.0727776566142</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>290.282096632709</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,16 +9011,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,10 +10439,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>401.0105146732905</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,16 +11144,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>290.7443071551351</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.7137242822431</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23312,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23391,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.66257839606692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>113.4971061691875</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23741,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,10 +23819,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>48.28034918004776</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>102.3410493332383</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>108.137662477717</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24048,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>78.20953462214722</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>153.5901843066936</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>385.6922903709871</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>142.8645164699222</v>
+        <v>46.61372715967866</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>52.98908343089657</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>19.67822014883431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>27.19373373354799</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>2.358527675907169</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>70.71039934280097</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>29.49070495153072</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25330,13 +25332,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>140.6136200195525</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25391,28 +25393,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y38" t="n">
-        <v>155.3634430599709</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>40.78933823947548</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>101.40258158463</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822431</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>92.32073141729899</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>58.85381342133088</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>127.0619199550857</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>24.75286782224003</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>926962.6356270903</v>
+        <v>921455.4369869052</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>926962.6356270903</v>
+        <v>928248.6825656274</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>926962.6356270903</v>
+        <v>928248.6825656274</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370883.5008132281</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370883.500813228</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390656.2152838468</v>
+        <v>390656.2152838469</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390656.2152838469</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>390656.2152838467</v>
+        <v>390656.2152838469</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390656.2152838468</v>
+        <v>390656.2152838469</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390656.2152838468</v>
+        <v>390656.2152838467</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370883.5008132281</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370883.5008132281</v>
+        <v>390656.2152838469</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.874290732</v>
       </c>
       <c r="F2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="G2" t="n">
         <v>216008.8742907321</v>
@@ -26350,10 +26352,10 @@
         <v>216008.8742907321</v>
       </c>
       <c r="O2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="P2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312508.3744827596</v>
+        <v>347968.0377624267</v>
       </c>
       <c r="C4" t="n">
-        <v>312508.3744827596</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>312508.3744827596</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>23970.50033531153</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>23970.50033531152</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>23970.50033531152</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>23970.50033531152</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106171.9344054873</v>
+        <v>130894.6716261512</v>
       </c>
       <c r="C6" t="n">
-        <v>175045.6909871771</v>
+        <v>120591.7636142756</v>
       </c>
       <c r="D6" t="n">
-        <v>175045.6909871773</v>
+        <v>181168.0858009438</v>
       </c>
       <c r="E6" t="n">
-        <v>168618.9491082521</v>
+        <v>176072.9373143511</v>
       </c>
       <c r="F6" t="n">
-        <v>168618.9491082521</v>
+        <v>176072.9373143512</v>
       </c>
       <c r="G6" t="n">
-        <v>166343.8943401841</v>
+        <v>176072.9373143512</v>
       </c>
       <c r="H6" t="n">
-        <v>176072.9373143511</v>
+        <v>176072.9373143512</v>
       </c>
       <c r="I6" t="n">
         <v>176072.9373143511</v>
       </c>
       <c r="J6" t="n">
-        <v>122300.4264241417</v>
+        <v>162071.7051740719</v>
       </c>
       <c r="K6" t="n">
-        <v>176072.9373143511</v>
+        <v>127815.9843807186</v>
       </c>
       <c r="L6" t="n">
         <v>176072.9373143511</v>
@@ -26555,13 +26557,13 @@
         <v>176072.9373143512</v>
       </c>
       <c r="N6" t="n">
+        <v>176072.9373143511</v>
+      </c>
+      <c r="O6" t="n">
         <v>176072.9373143512</v>
       </c>
-      <c r="O6" t="n">
-        <v>168618.9491082521</v>
-      </c>
       <c r="P6" t="n">
-        <v>168618.9491082521</v>
+        <v>176072.9373143511</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27427,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>207.5363183935555</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>351.0533924587024</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>77.6513629035687</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>205.3077389352137</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27591,16 +27593,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>155.8535025062294</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>202.2691865586751</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>162.1329695683187</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27667,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27755,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>131.8480391439123</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>144.6973629017844</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27813,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>235.0383253024833</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>322.4562579625502</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>148.0285537325045</v>
+        <v>82.77242830881264</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>91.61977832229879</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,13 +35652,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36914,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,10 +37159,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
-        <v>171.5974510766996</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>12.72573192223801</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1357776.073549369</v>
+        <v>1288924.777107932</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.015063725959897</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.18454619735122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
+        <v>46.38724422570589</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>23.440468830362</v>
       </c>
       <c r="V4" t="n">
         <v>53.51252900994975</v>
@@ -882,7 +882,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="X4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>40.47627913313517</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>61.07562230169311</v>
+        <v>126.0600191788911</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>84.41978777916125</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>143.1689537721622</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>183.8842973311964</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.0339917726842</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>241.0142888776591</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1618,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>162.3746624677313</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>51.87748497259537</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,64 +2001,64 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="W21" t="n">
-        <v>98.10479885422598</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>71.27563719245528</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>186.1868599897466</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,13 +2636,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>20.64425157461131</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>36.40754942051851</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.265316057196634</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.4889620437564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>46.11680327580186</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,17 +3274,17 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.1919908257736</v>
+        <v>204.7452777895381</v>
       </c>
     </row>
     <row r="37">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3505,70 +3505,70 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>131.9191607488403</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>176.2637201985544</v>
       </c>
     </row>
     <row r="40">
@@ -3660,64 +3660,64 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,70 +3742,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>36.81406643968054</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>45.02278574591164</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3976,67 +3976,67 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I44" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.62125114875211</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.0878705583682</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.457110779899</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>124.457110779899</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>124.457110779899</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>124.457110779899</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>70.40405117388919</v>
+        <v>34.85382110433888</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>19.39651048299034</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>19.39651048299034</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4333,16 +4333,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>55.11790488024824</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>124.457110779899</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4412,49 +4412,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="W3" t="n">
-        <v>113.1412541856014</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="X3" t="n">
         <v>59.08819457959154</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>187.623944761548</v>
       </c>
       <c r="V4" t="n">
-        <v>82.01130316959576</v>
+        <v>133.5708851555381</v>
       </c>
       <c r="W4" t="n">
-        <v>27.95824356358591</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352.9716273967953</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="C6" t="n">
-        <v>178.5185981156682</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>790.6398109613051</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>790.6398109613051</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X6" t="n">
-        <v>728.9472631818171</v>
+        <v>500.4021651258285</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.1869644168632</v>
+        <v>292.6418663608746</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342.668582052591</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>342.668582052591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>342.668582052591</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="W9" t="n">
-        <v>342.668582052591</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X9" t="n">
-        <v>342.668582052591</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y9" t="n">
-        <v>342.668582052591</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C11" t="n">
-        <v>233.7108255783361</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D11" t="n">
-        <v>233.7108255783361</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E11" t="n">
-        <v>233.7108255783361</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F11" t="n">
-        <v>233.7108255783361</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X11" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5181,25 +5181,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5363,19 +5363,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>497.8820279860555</v>
+        <v>597.8557502959362</v>
       </c>
       <c r="V15" t="n">
-        <v>262.7299197543128</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5469,19 +5469,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5600,16 +5600,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>911.6556555383177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>911.6556555383177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>911.6556555383177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>911.6556555383177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>911.6556555383177</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>668.2068788942177</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>668.2068788942177</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="19">
@@ -5706,19 +5706,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5837,10 +5837,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5864,16 +5864,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y21" t="n">
         <v>193.7341723913397</v>
@@ -5940,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
         <v>749.627473042513</v>
@@ -5974,10 +5974,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>602.5722756181267</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C24" t="n">
-        <v>428.1192463369997</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="D24" t="n">
-        <v>279.1848366757484</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="E24" t="n">
-        <v>279.1848366757484</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6104,16 +6104,16 @@
         <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>602.5722756181267</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>602.5722756181267</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>602.5722756181267</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>602.5722756181267</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="25">
@@ -6177,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>344.6327430815143</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C27" t="n">
-        <v>170.1797138003873</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D27" t="n">
-        <v>170.1797138003873</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E27" t="n">
-        <v>170.1797138003873</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F27" t="n">
-        <v>170.1797138003873</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G27" t="n">
-        <v>170.1797138003873</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>56.81057820796663</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>512.8480801015824</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="28">
@@ -6411,13 +6411,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="T29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="T29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>332.4649978087242</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6548,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>332.4649978087242</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>731.528039392485</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>353.5290077603655</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>204.5945980991143</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>527.9820370414925</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="Y36" t="n">
-        <v>334.7851707561815</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>587.3567013424552</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>438.4222916812039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7259,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y39" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
         <v>19.28114311021272</v>
@@ -7444,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>694.6722890434539</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C42" t="n">
-        <v>520.2192597623269</v>
+        <v>546.1553495854092</v>
       </c>
       <c r="D42" t="n">
-        <v>371.2848501010757</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E42" t="n">
-        <v>212.0473950956202</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F42" t="n">
-        <v>65.51283712250515</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7493,10 +7493,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
         <v>304.2053859195205</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C44" t="n">
-        <v>477.1596022224361</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D44" t="n">
-        <v>477.1596022224361</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E44" t="n">
-        <v>477.1596022224361</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F44" t="n">
-        <v>477.1596022224361</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y44" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>307.8574406365461</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="C45" t="n">
-        <v>133.4044113554191</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="D45" t="n">
-        <v>133.4044113554191</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E45" t="n">
-        <v>133.4044113554191</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F45" t="n">
-        <v>133.4044113554191</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>918.9851846533109</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>918.9851846533109</v>
+        <v>588.5308508013372</v>
       </c>
       <c r="U45" t="n">
-        <v>918.9851846533109</v>
+        <v>588.5308508013372</v>
       </c>
       <c r="V45" t="n">
-        <v>683.8330764215681</v>
+        <v>588.5308508013372</v>
       </c>
       <c r="W45" t="n">
-        <v>683.8330764215681</v>
+        <v>588.5308508013372</v>
       </c>
       <c r="X45" t="n">
-        <v>683.8330764215681</v>
+        <v>588.5308508013372</v>
       </c>
       <c r="Y45" t="n">
-        <v>476.0727776566142</v>
+        <v>588.5308508013372</v>
       </c>
     </row>
     <row r="46">
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>271.4402576706899</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
@@ -7993,7 +7993,7 @@
         <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>195.6465629319681</v>
@@ -8075,10 +8075,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8543,7 +8543,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8774,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,19 +9248,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9722,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10196,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10907,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>124.2586028933485</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23305,10 +23305,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>63.56671961324352</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23819,19 +23819,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>48.28034918004776</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -23989,7 +23989,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24104,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="W21" t="n">
-        <v>153.5901843066936</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24180,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24296,16 +24296,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>18.1209956589598</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24344,7 +24344,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>46.61372715967866</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24490,28 +24490,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,13 +24524,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>126.8008139900275</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>52.98908343089657</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24584,7 +24584,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.725383157348171</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>27.19373373354799</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>237.1365750230782</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,19 +24998,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>111.5282771795991</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.49070495153072</v>
+        <v>0.9374179877662243</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25438,13 +25438,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,22 +25472,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>40.78933823947548</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.41897557874998</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25630,10 +25630,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25684,16 +25684,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>110.6309991249582</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>92.32073141729899</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25769,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25946,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,16 +25994,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>127.0619199550857</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0.07685813645343842</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390656.2152838469</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390656.2152838468</v>
+        <v>390656.2152838469</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390656.2152838469</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390656.2152838468</v>
+        <v>390656.2152838467</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390656.2152838467</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>390656.2152838469</v>
+        <v>390656.2152838468</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="F2" t="n">
         <v>216008.8742907321</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347968.0377624267</v>
+        <v>347968.0377624266</v>
       </c>
       <c r="C4" t="n">
         <v>304227.7958470787</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130894.6716261512</v>
+        <v>130894.6716261516</v>
       </c>
       <c r="C6" t="n">
         <v>120591.7636142756</v>
       </c>
       <c r="D6" t="n">
-        <v>181168.0858009438</v>
+        <v>181168.0858009437</v>
       </c>
       <c r="E6" t="n">
-        <v>176072.9373143511</v>
+        <v>163854.9266943107</v>
       </c>
       <c r="F6" t="n">
-        <v>176072.9373143512</v>
+        <v>163854.9266943107</v>
       </c>
       <c r="G6" t="n">
-        <v>176072.9373143512</v>
+        <v>163854.9266943106</v>
       </c>
       <c r="H6" t="n">
-        <v>176072.9373143512</v>
+        <v>163854.9266943107</v>
       </c>
       <c r="I6" t="n">
-        <v>176072.9373143511</v>
+        <v>163854.9266943107</v>
       </c>
       <c r="J6" t="n">
-        <v>162071.7051740719</v>
+        <v>149853.6945540314</v>
       </c>
       <c r="K6" t="n">
-        <v>127815.9843807186</v>
+        <v>115597.973760678</v>
       </c>
       <c r="L6" t="n">
-        <v>176072.9373143511</v>
+        <v>163854.9266943107</v>
       </c>
       <c r="M6" t="n">
-        <v>176072.9373143512</v>
+        <v>163854.9266943107</v>
       </c>
       <c r="N6" t="n">
-        <v>176072.9373143511</v>
+        <v>163854.9266943106</v>
       </c>
       <c r="O6" t="n">
-        <v>176072.9373143512</v>
+        <v>163854.9266943107</v>
       </c>
       <c r="P6" t="n">
-        <v>176072.9373143511</v>
+        <v>163854.9266943106</v>
       </c>
     </row>
   </sheetData>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>207.460825844446</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.0533924587024</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>125.2959268781319</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>205.3077389352137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>262.8785605261289</v>
       </c>
       <c r="V4" t="n">
         <v>198.6251143138782</v>
@@ -27602,7 +27602,7 @@
         <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>202.2691865586751</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>182.6195704309962</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27712,13 +27712,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27754,13 +27754,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>144.6973629017844</v>
+        <v>79.71296602458636</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>322.4562579625502</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>82.77242830881264</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>48.91628981822888</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>140.1931807347554</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>53.51252900994975</v>
@@ -34713,7 +34713,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36916,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -38031,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
